--- a/biology/Botanique/Bolet_des_chênes_verts/Bolet_des_chênes_verts.xlsx
+++ b/biology/Botanique/Bolet_des_chênes_verts/Bolet_des_chênes_verts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_des_ch%C3%AAnes_verts</t>
+          <t>Bolet_des_chênes_verts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leccinellum lepidum
 Leccinellum lepidum, le Bolet des chênes verts, anciennement Leccinum lepidum, est une espèce de champignons basidiomycètes, appartenant à la famille des Boletaceae. Il est caractérisé par ses pores jaunâtres, son pied rugueux orné de squabrosités, sa chair grisonnante et son habitat sous chênes. C'est un champignon comestible, mais de valeur culinaire moyenne, pas aussi apprécié que les bolets populaires du genre Boletus sensu stricto.
-Originaire du sud de l'Europe, L. lepidum est abondamment présent dans toute la zone Méditerranéenne, poussant en symbiose mycorhizienne avec diverses espèces de chênes (Quercus), notamment le chêne vert (Quercus ilex) et le chêne-liège (Quercus suber). Malgré sa répartition méridionale, le champignon se distingue par sa fructification tardive et sa tolérance aux basses températures, il est souvent le seul bolet à fructifier pendant les mois froids de l'hiver[1]
+Originaire du sud de l'Europe, L. lepidum est abondamment présent dans toute la zone Méditerranéenne, poussant en symbiose mycorhizienne avec diverses espèces de chênes (Quercus), notamment le chêne vert (Quercus ilex) et le chêne-liège (Quercus suber). Malgré sa répartition méridionale, le champignon se distingue par sa fructification tardive et sa tolérance aux basses températures, il est souvent le seul bolet à fructifier pendant les mois froids de l'hiver
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_des_ch%C3%AAnes_verts</t>
+          <t>Bolet_des_chênes_verts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinellum lepidum (H.Bouchet ex Essette) Bresinsky &amp; Manfr.Binder[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lepidus H.Bouchet ex Essette[2].
-Synonymes
-Leccinellum lepidum a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Leccinellum lepidum (H.Bouchet ex Essette) Bresinsky &amp; Manfr.Binder.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lepidus H.Bouchet ex Essette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_des_chênes_verts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_ch%C3%AAnes_verts</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinellum lepidum a pour synonymes :
 Boletus crocipodius var. eximius Bouchet, 1960
 Boletus lepidus H.Bouchet
 Boletus lepidus H.Bouchet ex Essette
@@ -531,51 +579,7 @@
 Leccinum lepidum subsp. sardoum (Belli &amp; Sacc.) Quadr., 1985
 Leccinum lepidum (H.Bouchet ex Essette) Bon &amp; Contu
 Leccinum lepidum (H.Bouchet ex Essette) Quadr.
-Leccinum sardoum (Belli &amp; Sacc.) Quadr. &amp; Lunghini
-Phylogénie
-Initialement décrit comme Boletus lepidus par H. Essette en 1965[3], Leccinellum lepidum a été classé de manière controversée par divers auteurs, qui l'ont placé dans différents genres ou l'ont parfois synonymisé avec d'autres taxons. En 1985, l'espèce a été invalidement recombinée au genre Leccinum par les mycologues Marcel Bon et Marco Contu, mais plus tard dans la même année, le mycologue italien Carlo Alessio l'a transférée dans Krombholziella[4], un genre qui est devenu plus tard synonyme de Leccinum. Bon l'a recombiné comme une variété de Leccinum crocipodium en 1989[5], pour le recombiner ensuite à nouveau avec M. Contu sous le nom de Leccinum lepidum, en 1990[6]. Heinz Engel et ses collègues, de leur côté, ont rejeté tous les noms précédents et ont considéré le taxon comme un synonyme de Leccinum corsicum, une espèce étroitement apparentée associée aux arbustes Cistacés.
-En 2003, l'espèce a été transférée vers le genre Leccinellum nouvellement créé par les mycologues Andreas Bresinsky et Manfred Binder, avec d'autres taxons à pores jaunes anciennement placés dans le genre Leccinum[7]. Des analyses phylogénétiques et chimiotaxonomiques ultérieures réalisées par Binder &amp; Besl[8] et Den Bakker &amp; Noordeloos[9] ont remis en question la ségrégation du genre Leccinellum, mais ont suggéré que L. lepidum, L. corsicum et L. crocipodium sont probablement des espèces distinctes. Cependant, les trois taxons étaient initialement représentés par très peu de séquences et le clade inclusif « corsicum/lepidum » a reçu un soutien élevé dans les analyses phylogénétiques préliminaires. Dans un article de 2014, Bertolini[10] a abandonné Leccinellum de manière controversée et a placé L. lepidum une fois de plus en synonymie avec L. corsicum, pour que le genre soit rétabli la même année par Wu et ses collègues, dans une contribution majeure délimitant 22 clades génériques. dans la famille des Bolétacées[11]. La confusion a finalement été clarifiée en 2019, lorsque plusieurs collections de Corse, de Croatie, de Chypre, de France et de Grèce ont été analysées dans un traitement phylogénétique, biogéographique et écologique élaboré par M. Loizides et ses collègues[12]. Dans cette étude, Leccinellum fut validé phylogénétiquement, tandis que L. lepidum, L. corsicum et L. crocipodium formaient des lignées bien étayées au sein du genre et ont été confirmées comme espèces distinctes.
-Étymologie
-L'épithète latine lèpidus, signifiant « agréable » ou « charmant », fait probablement référence à l'apparence ou aux qualités culinaires du champignon.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_des_ch%C3%AAnes_verts</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_des_ch%C3%AAnes_verts</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent.
-Leccinellum lepidum possède un chapeau gras, plus ou moins cabossé, brun-jaune, brun sombre à ochracé. Des pores jaunes puis jaune verdâtre, un stipe trapu, jaune à roussâtre, une chair jaunâtre devenant gris rosâtre, gris violacé à noirâtre à la coupe, parfois subimmuable, et une odeur d’iode fréquente à la base du stipe[13],[14]. Ses caractéristiques d'identification principales sont son stipe orné de scabrosités, sa chair grisonnante à la coupe et ses pores jaunes dès la jeunesse.
-Les tubes mesurent 1 à 2 cm de long, d'une couleur jaune pâle à jaune ocre. Les pores sont petits et arrondis, concolores aux tubes, se colorant lentement en brun rouille et enfin en brun grisâtre lors de la manipulation ou avec l'âge[15],[16].
-Le stipe est de 5 à 15 cm de long et de 2 à 6 cm de large, généralement robuste et obèse au début, mais devenant progressivement plus long et clavé à cylindrique, sa couleur allant du jaune ocre au jaune pâle, de couleur paille ou blanc sale. Sa surface est couverte de minuscules pustules (scabrosités), concolores à la surface du stipe au début, mais se colorant souvent de brun rouille ou de gris-brun avec l'âge et se fusionnant parfois pour former un pseudo-réseau[17].
-La chair est épaisse et jaune terne à couleur paille. Lorsqu'il est coupé ou exposé à l'air, il se décolore très lentement en orange ou en gris violacé par endroits, et après quelques heures, il s'assombrit en brun grisâtre ou gris-noir. L'odeur est légèrement fongoïde chez les jeunes spécimens, devenant plus forte chez les vieux spécimens, tandis que le goût est doux à quelque peu astringent. Les spores sont de couleur brun tabac[18],[19].
-Caractéristiques microscopiques
-Au microscope, les spores apparaissent étroitement ellipsoïdes à fusiformes et mesurent 13,5–22 × 5–6 μm. La cuticule est un trichoderme d'hyphes cylindriques septés, souvent finement incrustés[14],[20].  
-</t>
+Leccinum sardoum (Belli &amp; Sacc.) Quadr. &amp; Lunghini</t>
         </is>
       </c>
     </row>
@@ -585,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bolet_des_ch%C3%AAnes_verts</t>
+          <t>Bolet_des_chênes_verts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +604,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement décrit comme Boletus lepidus par H. Essette en 1965, Leccinellum lepidum a été classé de manière controversée par divers auteurs, qui l'ont placé dans différents genres ou l'ont parfois synonymisé avec d'autres taxons. En 1985, l'espèce a été invalidement recombinée au genre Leccinum par les mycologues Marcel Bon et Marco Contu, mais plus tard dans la même année, le mycologue italien Carlo Alessio l'a transférée dans Krombholziella, un genre qui est devenu plus tard synonyme de Leccinum. Bon l'a recombiné comme une variété de Leccinum crocipodium en 1989, pour le recombiner ensuite à nouveau avec M. Contu sous le nom de Leccinum lepidum, en 1990. Heinz Engel et ses collègues, de leur côté, ont rejeté tous les noms précédents et ont considéré le taxon comme un synonyme de Leccinum corsicum, une espèce étroitement apparentée associée aux arbustes Cistacés.
+En 2003, l'espèce a été transférée vers le genre Leccinellum nouvellement créé par les mycologues Andreas Bresinsky et Manfred Binder, avec d'autres taxons à pores jaunes anciennement placés dans le genre Leccinum. Des analyses phylogénétiques et chimiotaxonomiques ultérieures réalisées par Binder &amp; Besl et Den Bakker &amp; Noordeloos ont remis en question la ségrégation du genre Leccinellum, mais ont suggéré que L. lepidum, L. corsicum et L. crocipodium sont probablement des espèces distinctes. Cependant, les trois taxons étaient initialement représentés par très peu de séquences et le clade inclusif « corsicum/lepidum » a reçu un soutien élevé dans les analyses phylogénétiques préliminaires. Dans un article de 2014, Bertolini a abandonné Leccinellum de manière controversée et a placé L. lepidum une fois de plus en synonymie avec L. corsicum, pour que le genre soit rétabli la même année par Wu et ses collègues, dans une contribution majeure délimitant 22 clades génériques. dans la famille des Bolétacées. La confusion a finalement été clarifiée en 2019, lorsque plusieurs collections de Corse, de Croatie, de Chypre, de France et de Grèce ont été analysées dans un traitement phylogénétique, biogéographique et écologique élaboré par M. Loizides et ses collègues. Dans cette étude, Leccinellum fut validé phylogénétiquement, tandis que L. lepidum, L. corsicum et L. crocipodium formaient des lignées bien étayées au sein du genre et ont été confirmées comme espèces distinctes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_des_chênes_verts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_ch%C3%AAnes_verts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète latine lèpidus, signifiant « agréable » ou « charmant », fait probablement référence à l'apparence ou aux qualités culinaires du champignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_des_chênes_verts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_ch%C3%AAnes_verts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent.
+Leccinellum lepidum possède un chapeau gras, plus ou moins cabossé, brun-jaune, brun sombre à ochracé. Des pores jaunes puis jaune verdâtre, un stipe trapu, jaune à roussâtre, une chair jaunâtre devenant gris rosâtre, gris violacé à noirâtre à la coupe, parfois subimmuable, et une odeur d’iode fréquente à la base du stipe,. Ses caractéristiques d'identification principales sont son stipe orné de scabrosités, sa chair grisonnante à la coupe et ses pores jaunes dès la jeunesse.
+Les tubes mesurent 1 à 2 cm de long, d'une couleur jaune pâle à jaune ocre. Les pores sont petits et arrondis, concolores aux tubes, se colorant lentement en brun rouille et enfin en brun grisâtre lors de la manipulation ou avec l'âge,.
+Le stipe est de 5 à 15 cm de long et de 2 à 6 cm de large, généralement robuste et obèse au début, mais devenant progressivement plus long et clavé à cylindrique, sa couleur allant du jaune ocre au jaune pâle, de couleur paille ou blanc sale. Sa surface est couverte de minuscules pustules (scabrosités), concolores à la surface du stipe au début, mais se colorant souvent de brun rouille ou de gris-brun avec l'âge et se fusionnant parfois pour former un pseudo-réseau.
+La chair est épaisse et jaune terne à couleur paille. Lorsqu'il est coupé ou exposé à l'air, il se décolore très lentement en orange ou en gris violacé par endroits, et après quelques heures, il s'assombrit en brun grisâtre ou gris-noir. L'odeur est légèrement fongoïde chez les jeunes spécimens, devenant plus forte chez les vieux spécimens, tandis que le goût est doux à quelque peu astringent. Les spores sont de couleur brun tabac,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_des_chênes_verts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_ch%C3%AAnes_verts</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au microscope, les spores apparaissent étroitement ellipsoïdes à fusiformes et mesurent 13,5–22 × 5–6 μm. La cuticule est un trichoderme d'hyphes cylindriques septés, souvent finement incrustés,.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_des_chênes_verts</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_ch%C3%AAnes_verts</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leccinellum lepidum var. sardoum (Belli &amp; Sacc.) Blanco-Dios[21].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinellum lepidum var. sardoum (Belli &amp; Sacc.) Blanco-Dios.
 </t>
         </is>
       </c>
